--- a/inputfiles/6PPDQ_CHEMSUMM.xlsx
+++ b/inputfiles/6PPDQ_CHEMSUMM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\SubsurfaceSinks\inputfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDD858B-47EF-4F39-AC9D-0A3A21023FA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441E38F1-AF4A-488B-A722-AB8AAC20828D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,6 +54,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Rodgers, Timothy:</t>
         </r>
@@ -62,6 +63,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 6PPD-Q 
@@ -94,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Compound</t>
   </si>
@@ -166,6 +168,15 @@
   </si>
   <si>
     <t>Bromide</t>
+  </si>
+  <si>
+    <t>Rhodamine</t>
+  </si>
+  <si>
+    <t>CCN(CC)C1=CC2=C(C=C1)C(=C3C=CC(=[N+](CC)CC)C=C3O2)C4=C(C=C(C=C4)C(=O)[O-])C(=O)[O-].[Na+].[Na+].[Cl-]</t>
+  </si>
+  <si>
+    <t>37299-86-8</t>
   </si>
 </sst>
 </file>
@@ -325,12 +336,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -1075,7 +1088,7 @@
   <dimension ref="A1:U24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:H24"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1285,8 +1298,67 @@
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1">
+        <v>566.99</v>
+      </c>
+      <c r="C4">
+        <v>7.8946170041811414E-6</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.2887999999999998E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4.9712889999999998E-10</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1440</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2880</v>
+      </c>
+      <c r="H4" s="1">
+        <v>144</v>
+      </c>
+      <c r="I4" s="1">
+        <v>-1.33</v>
+      </c>
+      <c r="J4" s="1">
+        <v>-33.538476999866809</v>
+      </c>
+      <c r="K4" s="1">
+        <v>4.3643633546157306</v>
+      </c>
+      <c r="L4" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O4" s="1">
+        <v>16.437000000000001</v>
+      </c>
+      <c r="P4" s="1">
+        <v>2.33</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1.47</v>
+      </c>
+      <c r="S4" s="1">
+        <v>3.7159</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I5" s="3"/>

--- a/inputfiles/6PPDQ_CHEMSUMM.xlsx
+++ b/inputfiles/6PPDQ_CHEMSUMM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\SubsurfaceSinks\inputfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441E38F1-AF4A-488B-A722-AB8AAC20828D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEBD217-AC91-4974-85FD-11E912DF1057}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Compound</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>37299-86-8</t>
+  </si>
+  <si>
+    <t>Rhodamine_n</t>
   </si>
 </sst>
 </file>
@@ -1088,7 +1091,7 @@
   <dimension ref="A1:U24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1361,8 +1364,67 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1">
+        <v>566.99</v>
+      </c>
+      <c r="C5">
+        <v>7.8946170041811414E-6</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.2887999999999998E-2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4.9712889999999998E-10</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1440</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2880</v>
+      </c>
+      <c r="H5" s="1">
+        <v>144</v>
+      </c>
+      <c r="I5" s="1">
+        <v>-1.33</v>
+      </c>
+      <c r="J5" s="1">
+        <v>-33.538476999866809</v>
+      </c>
+      <c r="K5" s="1">
+        <v>4.3643633546157306</v>
+      </c>
+      <c r="L5" s="1">
+        <v>999</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>16.437000000000001</v>
+      </c>
+      <c r="P5" s="1">
+        <v>2.33</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1.47</v>
+      </c>
+      <c r="S5" s="1">
+        <v>3.7159</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I6" s="3"/>

--- a/inputfiles/6PPDQ_CHEMSUMM.xlsx
+++ b/inputfiles/6PPDQ_CHEMSUMM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\SubsurfaceSinks\inputfiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\SubsurfaceSinks\inputfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEBD217-AC91-4974-85FD-11E912DF1057}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B0CE59-AC22-4C35-81EA-7AAE16938D1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Compound</t>
   </si>
@@ -177,9 +177,6 @@
   </si>
   <si>
     <t>37299-86-8</t>
-  </si>
-  <si>
-    <t>Rhodamine_n</t>
   </si>
 </sst>
 </file>
@@ -1088,10 +1085,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U24"/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1364,67 +1361,8 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="1">
-        <v>566.99</v>
-      </c>
-      <c r="C5">
-        <v>7.8946170041811414E-6</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1.2887999999999998E-2</v>
-      </c>
-      <c r="E5" s="2">
-        <v>4.9712889999999998E-10</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1440</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2880</v>
-      </c>
-      <c r="H5" s="1">
-        <v>144</v>
-      </c>
-      <c r="I5" s="1">
-        <v>-1.33</v>
-      </c>
-      <c r="J5" s="1">
-        <v>-33.538476999866809</v>
-      </c>
-      <c r="K5" s="1">
-        <v>4.3643633546157306</v>
-      </c>
-      <c r="L5" s="1">
-        <v>999</v>
-      </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1">
-        <v>16.437000000000001</v>
-      </c>
-      <c r="P5" s="1">
-        <v>2.33</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>0</v>
-      </c>
-      <c r="R5" s="1">
-        <v>1.47</v>
-      </c>
-      <c r="S5" s="1">
-        <v>3.7159</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U5" t="s">
-        <v>26</v>
-      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I6" s="3"/>
@@ -1443,6 +1381,7 @@
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H10" s="5"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
@@ -1457,13 +1396,15 @@
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H13" s="5"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="F14" s="9"/>
       <c r="H14" s="7"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
@@ -1477,10 +1418,10 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E16" s="6"/>
-      <c r="F16" s="9"/>
+      <c r="F16" s="6"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
     </row>
     <row r="17" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E17" s="6"/>
@@ -1492,7 +1433,7 @@
     <row r="18" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="H18" s="7"/>
+      <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
     </row>
@@ -1511,20 +1452,13 @@
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
     </row>
     <row r="22" spans="5:10" x14ac:dyDescent="0.25">
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="5:10" x14ac:dyDescent="0.25">
       <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="F24" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inputfiles/6PPDQ_CHEMSUMM.xlsx
+++ b/inputfiles/6PPDQ_CHEMSUMM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\SubsurfaceSinks\inputfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B0CE59-AC22-4C35-81EA-7AAE16938D1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEBC782-6A7E-4CD1-BDB6-C3F51693978A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1088,7 +1088,7 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1195,7 +1195,7 @@
         <v>33</v>
       </c>
       <c r="G2" s="1">
-        <v>8100</v>
+        <v>1800</v>
       </c>
       <c r="H2" s="1">
         <f>0.1*900</f>
